--- a/tests/data/output/single_sample_reports/sda_oxidation.xlsx
+++ b/tests/data/output/single_sample_reports/sda_oxidation.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>temp_i_K</t>
+          <t>temp_i_C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>temp_p_K</t>
+          <t>temp_p_C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>temp_b_K</t>
+          <t>temp_b_C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>564.1950118452224</v>
+        <v>291.0450118452225</v>
       </c>
       <c r="C2" t="n">
-        <v>592.0023295604107</v>
+        <v>318.8523295604106</v>
       </c>
       <c r="D2" t="n">
-        <v>999.3095156620163</v>
+        <v>726.1595156620164</v>
       </c>
       <c r="E2" t="n">
-        <v>1.035228345163251e-09</v>
+        <v>5.353555487637812e-09</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1958015267176</v>
+        <v>294.0458015267176</v>
       </c>
       <c r="C3" t="n">
-        <v>593.2026454330087</v>
+        <v>320.0526454330087</v>
       </c>
       <c r="D3" t="n">
-        <v>954.6977757304554</v>
+        <v>681.5477757304553</v>
       </c>
       <c r="E3" t="n">
-        <v>1.137114124986016e-09</v>
+        <v>5.926655853891423e-09</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568.1960647538826</v>
+        <v>295.0460647538826</v>
       </c>
       <c r="C4" t="n">
-        <v>593.6027507238747</v>
+        <v>320.4527507238747</v>
       </c>
       <c r="D4" t="n">
-        <v>941.4943011318769</v>
+        <v>668.3443011318768</v>
       </c>
       <c r="E4" t="n">
-        <v>1.102520275606205e-09</v>
+        <v>5.75997795648328e-09</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.5289593752742</v>
+        <v>293.3789593752742</v>
       </c>
       <c r="C5" t="n">
-        <v>592.9359085724313</v>
+        <v>319.7859085724313</v>
       </c>
       <c r="D5" t="n">
-        <v>965.1671975081163</v>
+        <v>692.0171975081162</v>
       </c>
       <c r="E5" t="n">
-        <v>1.091620915251824e-09</v>
+        <v>5.680063099337505e-09</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.700120571347957</v>
+        <v>1.700120571347938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6800482285391649</v>
+        <v>0.6800482285391909</v>
       </c>
       <c r="D6" t="n">
-        <v>24.73669813671488</v>
+        <v>24.73669813671493</v>
       </c>
       <c r="E6" t="n">
-        <v>4.230267977819074e-11</v>
+        <v>2.406945446611781e-10</v>
       </c>
     </row>
   </sheetData>
